--- a/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
+++ b/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3486,7 +3486,7 @@
     <t>VL Procedure info</t>
   </si>
   <si>
-    <t>This profile is for recording the Reason for Viral Load</t>
+    <t>This profile is for recording the Reason for Viral Load testing.</t>
   </si>
   <si>
     <t>Procedure</t>

--- a/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
+++ b/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
+++ b/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:09:22+00:00</t>
+    <t>2023-02-15T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -39674,7 +39674,7 @@
         <v>76</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>78</v>

--- a/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
+++ b/branches/Procedure-resource-dev-FIG-49/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
